--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shariq.raees\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atiqb\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E293AB4-2B02-4141-9696-668CB62B90FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919CA04-759F-45A3-B802-9D738E60B136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Week 9</t>
   </si>
@@ -167,6 +167,36 @@
   </si>
   <si>
     <t>GUI for Prey</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding some new methods and class converted into abstract </t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>Score Board logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prey logic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">key praseed Event </t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score Board </t>
   </si>
 </sst>
 </file>
@@ -812,7 +842,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1088,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
@@ -1075,6 +1105,9 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1085,7 +1118,9 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1093,12 +1128,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>3.2</v>
-      </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1107,12 +1140,10 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1124,7 +1155,9 @@
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1132,16 +1165,37 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9">

--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atiqb\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919CA04-759F-45A3-B802-9D738E60B136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA1A7D-A8B3-443F-8244-C1D7BC135C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Week 9</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t xml:space="preserve">score Board </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the documentation and backlog is completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the charactors are developed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game work well except the dashboard allingment </t>
+  </si>
+  <si>
+    <t>Test the dashboard</t>
   </si>
 </sst>
 </file>
@@ -284,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,6 +378,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +698,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1137,9 @@
         <v>55</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="38">
+        <v>1</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1134,7 +1151,9 @@
         <v>49</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="38">
+        <v>1</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1146,7 +1165,9 @@
         <v>56</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1159,7 +1180,9 @@
         <v>50</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="38">
+        <v>1</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1172,6 +1195,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="5"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -1180,6 +1204,9 @@
       <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -1188,6 +1215,9 @@
       <c r="D23" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="I23" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1196,6 +1226,9 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
+      <c r="I24" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1204,11 +1237,29 @@
       <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
+      <c r="F25" s="14"/>
+      <c r="J25" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="39">
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,11 +1269,15 @@
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
       <c r="E27" s="8">
         <v>4</v>
       </c>
-      <c r="F27" s="14">
-        <v>0</v>
+      <c r="F27" s="14"/>
+      <c r="J27" s="39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atiqb\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA1A7D-A8B3-443F-8244-C1D7BC135C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D12506-F2C7-4709-AEE8-1DD97BFC17D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Week 9</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Test the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement of snake is control with arrow keys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake stop on spacebar and resume on any arrow key </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When snake hit himself or hit the border it will end the game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game control </t>
   </si>
 </sst>
 </file>
@@ -372,15 +384,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,40 +727,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1149,7 @@
         <v>55</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>1</v>
       </c>
       <c r="I17" s="6"/>
@@ -1151,7 +1163,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="38">
+      <c r="H18" s="36">
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
@@ -1165,7 +1177,7 @@
         <v>56</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="38">
+      <c r="H19" s="36">
         <v>1</v>
       </c>
       <c r="I19" s="6"/>
@@ -1180,7 +1192,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="38">
+      <c r="H20" s="36">
         <v>1</v>
       </c>
       <c r="I20" s="6"/>
@@ -1195,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -1204,7 +1216,7 @@
       <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1215,7 +1227,7 @@
       <c r="D23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1226,57 +1238,89 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>4</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E29" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="J25" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="F29" s="14"/>
+      <c r="J29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J30" s="37">
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E31" s="8">
         <v>4</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="J27" s="39">
+      <c r="F31" s="14"/>
+      <c r="J31" s="37">
         <v>1</v>
       </c>
     </row>
